--- a/lookup_pys/hvac_lookup.xlsx
+++ b/lookup_pys/hvac_lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\E_Plus_2030_py\lookup_pys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFBFCBF-A8F2-4F1B-9E7D-1679315EF339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8815401-7F9A-4F59-A513-FF750AF8E637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45792" yWindow="-9540" windowWidth="23136" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2670" windowWidth="29040" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="113">
   <si>
     <t>pre_calibration</t>
   </si>
@@ -113,9 +113,6 @@
     <t>(12.0, 14.0)</t>
   </si>
   <si>
-    <t>day_start=07:00; day_end=23:00; occ: weekday=FullOccupancy, weekend=FullOccupancy</t>
-  </si>
-  <si>
     <t>2006 - 2014</t>
   </si>
   <si>
@@ -128,18 +125,9 @@
     <t>(15.0, 16.0)</t>
   </si>
   <si>
-    <t>(24.0, 26.0)</t>
-  </si>
-  <si>
-    <t>(26.0, 28.0)</t>
-  </si>
-  <si>
     <t>(50.0, 55.0)</t>
   </si>
   <si>
-    <t>day_start=06:00; day_end=22:00; occ: weekday=FullOccupancy, weekend=FullOccupancy</t>
-  </si>
-  <si>
     <t>1975 - 1991</t>
   </si>
   <si>
@@ -155,18 +143,12 @@
     <t>(18.5, 20.5)</t>
   </si>
   <si>
-    <t>(23.5, 25.5)</t>
-  </si>
-  <si>
     <t>&lt; 1945</t>
   </si>
   <si>
     <t>(18.0, 20.0)</t>
   </si>
   <si>
-    <t>(23.0, 25.0)</t>
-  </si>
-  <si>
     <t>Apartment</t>
   </si>
   <si>
@@ -188,18 +170,12 @@
     <t>(60.0, 70.0)</t>
   </si>
   <si>
-    <t>wd_start=08:00; wd_end=22:00; we_start=08:00; we_end=18:00; occ: wd=MeetingFunction_Weekday, we=MeetingFunction_Weekend</t>
-  </si>
-  <si>
     <t>(23.0, 24.0)</t>
   </si>
   <si>
     <t>(25.0, 26.0)</t>
   </si>
   <si>
-    <t>wd_start=08:00; wd_end=21:00; we_start=09:00; we_end=15:00; occ: wd=MeetingFunction_Weekday, we=MeetingFunction_Weekend</t>
-  </si>
-  <si>
     <t>(19.5, 20.0)</t>
   </si>
   <si>
@@ -212,9 +188,6 @@
     <t>(25.5, 26.0)</t>
   </si>
   <si>
-    <t>wd_start=08:00; wd_end=20:00; we_start=08:00; we_end=18:00; occ: wd=MeetingFunction_Weekday, we=MeetingFunction_Weekend</t>
-  </si>
-  <si>
     <t>(19.0, 19.5)</t>
   </si>
   <si>
@@ -242,9 +215,6 @@
     <t>(13.0, 15.0)</t>
   </si>
   <si>
-    <t>wd_start=07:00; wd_end=21:00; we_start=08:00; we_end=18:00; occ: wd=Healthcare_Weekday, we=Healthcare_Weekend</t>
-  </si>
-  <si>
     <t>(65.0, 70.0)</t>
   </si>
   <si>
@@ -260,21 +230,12 @@
     <t>(25.5, 26.5)</t>
   </si>
   <si>
-    <t>wd_start=07:00; wd_end=20:00; we_start=08:00; we_end=17:00; occ: wd=Healthcare_Weekday, we=Healthcare_Weekend</t>
-  </si>
-  <si>
     <t>Sport Function</t>
   </si>
   <si>
-    <t>wd_start=09:00; wd_end=21:00; we_start=09:00; we_end=19:00; occ: wd=Sport_Weekday, we=Sport_Weekend</t>
-  </si>
-  <si>
     <t>(16.0, 17.0)</t>
   </si>
   <si>
-    <t>wd_start=09:00; wd_end=20:00; we_start=09:00; we_end=18:00; occ: wd=Sport_Weekday, we=Sport_Weekend</t>
-  </si>
-  <si>
     <t>Cell Function</t>
   </si>
   <si>
@@ -290,12 +251,6 @@
     <t>(62.0, 68.0)</t>
   </si>
   <si>
-    <t>wd_start=08:00; wd_end=20:00; we_start=09:00; we_end=17:00; occ: wd=Cell_Weekday, we=Cell_Weekend</t>
-  </si>
-  <si>
-    <t>wd_start=08:00; wd_end=19:00; we_start=09:00; we_end=17:00; occ: wd=Cell_Weekday, we=Cell_Weekend</t>
-  </si>
-  <si>
     <t>Retail Function</t>
   </si>
   <si>
@@ -305,15 +260,6 @@
     <t>(12.5, 14.0)</t>
   </si>
   <si>
-    <t>wd_start=09:00; wd_end=21:00; we_start=10:00; we_end=18:00; occ: wd=Retail_Weekday, we=Retail_Weekend</t>
-  </si>
-  <si>
-    <t>wd_start=09:00; wd_end=20:00; we_start=10:00; we_end=17:00; occ: wd=Retail_Weekday, we=Retail_Weekend</t>
-  </si>
-  <si>
-    <t>wd_start=09:00; wd_end=19:00; we_start=10:00; we_end=17:00; occ: wd=Retail_Weekday, we=Retail_Weekend</t>
-  </si>
-  <si>
     <t>(15.0, 15.0)</t>
   </si>
   <si>
@@ -323,21 +269,12 @@
     <t>(65.0, 75.0)</t>
   </si>
   <si>
-    <t>wd_start=06:00; wd_end=20:00; we_start=07:00; we_end=18:00; occ: wd=Industrial_Weekday, we=Industrial_Weekend</t>
-  </si>
-  <si>
     <t>(16.5, 17.0)</t>
   </si>
   <si>
-    <t>wd_start=06:00; wd_end=19:00; we_start=07:00; we_end=18:00; occ: wd=Industrial_Weekday, we=Industrial_Weekend</t>
-  </si>
-  <si>
     <t>(16.0, 16.5)</t>
   </si>
   <si>
-    <t>wd_start=06:00; wd_end=18:00; we_start=07:00; we_end=17:00; occ: wd=Industrial_Weekday, we=Industrial_Weekend</t>
-  </si>
-  <si>
     <t>Accommodation Function</t>
   </si>
   <si>
@@ -347,30 +284,12 @@
     <t>(58.0, 65.0)</t>
   </si>
   <si>
-    <t>wd_start=07:00; wd_end=22:00; we_start=08:00; we_end=20:00; occ: wd=Accommodation_Weekday, we=Accommodation_Weekend</t>
-  </si>
-  <si>
     <t>(60.0, 65.0)</t>
   </si>
   <si>
-    <t>wd_start=07:00; wd_end=21:00; we_start=08:00; we_end=20:00; occ: wd=Accommodation_Weekday, we=Accommodation_Weekend</t>
-  </si>
-  <si>
-    <t>wd_start=07:00; wd_end=20:00; we_start=08:00; we_end=19:00; occ: wd=Accommodation_Weekday, we=Accommodation_Weekend</t>
-  </si>
-  <si>
     <t>Office Function</t>
   </si>
   <si>
-    <t>wd_start=08:00; wd_end=18:00; we_start=09:00; we_end=17:00; occ: wd=Office_Weekday, we=Office_Weekend</t>
-  </si>
-  <si>
-    <t>wd_start=08:00; wd_end=17:00; we_start=09:00; we_end=16:00; occ: wd=Office_Weekday, we=Office_Weekend</t>
-  </si>
-  <si>
-    <t>wd_start=08:00; wd_end=16:00; we_start=09:00; we_end=15:00; occ: wd=Office_Weekday, we=Office_Weekend</t>
-  </si>
-  <si>
     <t>(18.5, 19.5)</t>
   </si>
   <si>
@@ -383,18 +302,9 @@
     <t>(58.0, 64.0)</t>
   </si>
   <si>
-    <t>wd_start=08:00; wd_end=17:00; we_start=09:00; we_end=15:00; occ: wd=Education_Weekday, we=Education_Weekend</t>
-  </si>
-  <si>
     <t>(60.0, 64.0)</t>
   </si>
   <si>
-    <t>wd_start=08:00; wd_end=16:00; we_start=09:00; we_end=15:00; occ: wd=Education_Weekday, we=Education_Weekend</t>
-  </si>
-  <si>
-    <t>wd_start=08:00; wd_end=15:00; we_start=09:00; we_end=14:00; occ: wd=Education_Weekday, we=Education_Weekend</t>
-  </si>
-  <si>
     <t>Other Use Function</t>
   </si>
   <si>
@@ -413,23 +323,62 @@
     <t>(12.0, 13.5)</t>
   </si>
   <si>
-    <t>wd_start=08:00; wd_end=18:00; we_start=09:00; we_end=17:00; occ: wd=OtherUse_Weekday, we=OtherUse_Weekend</t>
-  </si>
-  <si>
     <t>(60.0, 63.0)</t>
   </si>
   <si>
-    <t>wd_start=08:00; wd_end=17:00; we_start=09:00; we_end=16:00; occ: wd=OtherUse_Weekday, we=OtherUse_Weekend</t>
-  </si>
-  <si>
-    <t>wd_start=08:00; wd_end=16:00; we_start=09:00; we_end=15:00; occ: wd=OtherUse_Weekday, we=OtherUse_Weekend</t>
+    <t>"hvac_availability=WeekDays:[{until=06:00,value=0.0},{until=09:00,value=1.0},{until=17:00,value=0.5},{until=22:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=09:00,value=0.0},{until=20:00,value=1.0},{until=24:00,value=0.0}];Sunday:[{until=09:00,value=0.0},{until=19:00,value=0.5},{until=24:00,value=0.0}];setpoints:day_start=07:00,day_end=23:00;schedule_name_heat=Corner_Heat_Setpts,schedule_name_cool=Corner_Cool_Setpts;occupancy:weekday=FullOccupancy,weekend=PartialOccupancy"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=07:00,value=0.0},{until=09:00,value=1.0},{until=18:00,value=0.7},{until=23:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=08:00,value=0.0},{until=22:00,value=1.0},{until=24:00,value=0.0}];Sunday:[{until=10:00,value=0.0},{until=19:00,value=0.5},{until=24:00,value=0.0}];setpoints:day_start=07:00,day_end=23:00;occupancy:weekday=FullOccupancy,weekend=PartialOccupancy"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=06:00,value=0.0},{until=09:00,value=1.0},{until=17:00,value=0.5},{until=23:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=07:00,value=0.0},{until=22:00,value=1.0},{until=24:00,value=0.0}];Sunday:[{until=09:00,value=0.0},{until=18:00,value=0.7},{until=24:00,value=0.0}];setpoints:day_start=06:30,day_end=22:30;occupancy:weekday=FullOccupancy,weekend=PartialOccupancy"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=06:00,value=0.0},{until=08:00,value=1.0},{until=17:30,value=0.5},{until=23:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=08:00,value=0.0},{until=21:00,value=1.0},{until=24:00,value=0.0}];Sunday:[{until=09:00,value=0.0},{until=20:00,value=0.5},{until=24:00,value=0.0}];setpoints:day_start=07:00,day_end=23:00;occupancy:weekday=FullOccupancy,weekend=FullOccupancy"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=07:00,value=0.0},{until=09:00,value=1.0},{until=17:00,value=0.6},{until=23:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=09:00,value=0.0},{until=18:00,value=0.5},{until=24:00,value=0.0}];Sunday:[{until=09:00,value=0.0},{until=19:00,value=0.5},{until=24:00,value=0.0}];setpoints:day_start=07:00,day_end=23:00;occupancy:weekday=FullOccupancy,weekend=PartialOccupancy"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=08:00,value=0.0},{until=12:00,value=1.0},{until=13:00,value=0.8},{until=18:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=09:00,value=0.0},{until=14:00,value=0.5},{until=24:00,value=0.0}];Sunday:[{until=24:00,value=0.0}];setpoints:day_start=08:00,day_end=18:00;occupancy:weekday=MeetingFunction_Weekday,weekend=MeetingFunction_Weekend"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=06:00,value=0.2},{until=22:00,value=1.0},{until=24:00,value=0.2}];Saturday:[{until=07:00,value=0.2},{until=20:00,value=1.0},{until=24:00,value=0.2}];Sunday:[{until=07:00,value=0.2},{until=18:00,value=0.8},{until=24:00,value=0.2}];setpoints:day_start=06:00,day_end=22:00;occupancy:weekday=Healthcare_Weekday,weekend=Healthcare_Weekend"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=09:00,value=0.0},{until=21:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=09:00,value=0.0},{until=19:00,value=1.0},{until=24:00,value=0.0}];Sunday:[{until=09:00,value=0.0},{until=18:00,value=0.8},{until=24:00,value=0.0}];setpoints:day_start=09:00,day_end=21:00;occupancy:weekday=Sport_Weekday,weekend=Sport_Weekend"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=08:00,value=0.0},{until=20:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=09:00,value=0.0},{until=17:00,value=0.7},{until=24:00,value=0.0}];Sunday:[{until=24:00,value=0.0}];setpoints:day_start=08:00,day_end=20:00;occupancy:weekday=Cell_Weekday,weekend=Cell_Weekend"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=09:00,value=0.0},{until=21:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=10:00,value=0.0},{until=18:00,value=1.0},{until=24:00,value=0.0}];Sunday:[{until=24:00,value=0.0}];setpoints:day_start=09:00,day_end=21:00;occupancy:weekday=Retail_Weekday,weekend=Retail_Weekend"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=06:00,value=0.0},{until=20:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=07:00,value=0.0},{until=18:00,value=0.8},{until=24:00,value=0.0}];Sunday:[{until=24:00,value=0.0}];setpoints:day_start=06:00,day_end=20:00;occupancy:weekday=Industrial_Weekday,weekend=Industrial_Weekend"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=07:00,value=0.3},{until=22:00,value=1.0},{until=24:00,value=0.3}];Saturday:[{until=08:00,value=0.3},{until=20:00,value=1.0},{until=24:00,value=0.3}];Sunday:[{until=08:00,value=0.3},{until=19:00,value=0.8},{until=24:00,value=0.3}];setpoints:day_start=07:00,day_end=22:00;occupancy:weekday=Accommodation_Weekday,weekend=Accommodation_Weekend"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=08:00,value=0.0},{until=12:00,value=1.0},{until=13:00,value=0.8},{until=17:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=09:00,value=0.0},{until=15:00,value=0.5},{until=24:00,value=0.0}];Sunday:[{until=24:00,value=0.0}];setpoints:day_start=08:00,day_end=17:00;occupancy:weekday=Office_Weekday,weekend=Office_Weekend"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=08:00,value=0.0},{until=16:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=09:00,value=0.0},{until=15:00,value=0.5},{until=24:00,value=0.0}];Sunday:[{until=24:00,value=0.0}];setpoints:day_start=08:00,day_end=16:00;occupancy:weekday=Education_Weekday,weekend=Education_Weekend"</t>
+  </si>
+  <si>
+    <t>"hvac_availability=WeekDays:[{until=08:00,value=0.0},{until=18:00,value=1.0},{until=24:00,value=0.0}];Saturday:[{until=09:00,value=0.0},{until=17:00,value=1.0},{until=24:00,value=0.0}];Sunday:[{until=09:00,value=0.0},{until=16:00,value=0.5},{until=24:00,value=0.0}];setpoints:day_start=08:00,day_end=18:00;occupancy:weekday=OtherUse_Weekday,weekend=OtherUse_Weekend"</t>
+  </si>
+  <si>
+    <t>(32.0, 34.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +393,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF575B5F"/>
+      <name val="Google Sans Text"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -466,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -479,6 +434,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,15 +721,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W105"/>
+  <dimension ref="A1:W218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="O92" sqref="O92"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="11" width="15.85546875" customWidth="1"/>
+    <col min="13" max="17" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -809,7 +774,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="1"/>
@@ -817,7 +782,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -840,10 +805,10 @@
         <v>21</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
@@ -851,14 +816,11 @@
       <c r="K2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="L2" t="s">
+        <v>97</v>
+      </c>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="2"/>
@@ -866,7 +828,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -880,7 +842,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
@@ -889,10 +851,10 @@
         <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>24</v>
@@ -900,11 +862,12 @@
       <c r="K3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -918,31 +881,32 @@
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="K4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -956,19 +920,19 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>24</v>
@@ -976,11 +940,12 @@
       <c r="K5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -994,19 +959,19 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>24</v>
@@ -1014,11 +979,12 @@
       <c r="K6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1032,19 +998,19 @@
         <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>24</v>
@@ -1052,11 +1018,12 @@
       <c r="K7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1070,19 +1037,19 @@
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>24</v>
@@ -1090,11 +1057,12 @@
       <c r="K8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
@@ -1117,10 +1085,10 @@
         <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>24</v>
@@ -1128,11 +1096,12 @@
       <c r="K9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -1143,10 +1112,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
@@ -1155,10 +1124,10 @@
         <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>24</v>
@@ -1166,11 +1135,12 @@
       <c r="K10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -1181,34 +1151,35 @@
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="K11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1219,22 +1190,22 @@
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>24</v>
@@ -1242,11 +1213,12 @@
       <c r="K12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1257,22 +1229,22 @@
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>24</v>
@@ -1280,11 +1252,12 @@
       <c r="K13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -1295,22 +1268,22 @@
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>24</v>
@@ -1318,11 +1291,12 @@
       <c r="K14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -1333,22 +1307,22 @@
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>24</v>
@@ -1356,11 +1330,12 @@
       <c r="K15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>19</v>
@@ -1383,10 +1358,10 @@
         <v>21</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>24</v>
@@ -1394,11 +1369,12 @@
       <c r="K16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
@@ -1409,10 +1385,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>20</v>
@@ -1421,10 +1397,10 @@
         <v>21</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>24</v>
@@ -1432,11 +1408,12 @@
       <c r="K17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -1447,34 +1424,35 @@
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="K18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -1485,22 +1463,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>24</v>
@@ -1508,11 +1486,12 @@
       <c r="K19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -1523,22 +1502,22 @@
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>24</v>
@@ -1546,11 +1525,12 @@
       <c r="K20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
@@ -1561,22 +1541,22 @@
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>24</v>
@@ -1584,11 +1564,12 @@
       <c r="K21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
@@ -1599,22 +1580,22 @@
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>24</v>
@@ -1622,11 +1603,12 @@
       <c r="K22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>19</v>
@@ -1649,10 +1631,10 @@
         <v>21</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>24</v>
@@ -1660,11 +1642,12 @@
       <c r="K23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="4" t="s">
         <v>0</v>
       </c>
@@ -1675,10 +1658,10 @@
         <v>2</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>20</v>
@@ -1687,10 +1670,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>24</v>
@@ -1698,11 +1681,12 @@
       <c r="K24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
@@ -1713,34 +1697,35 @@
         <v>2</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="K25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="4" t="s">
         <v>0</v>
       </c>
@@ -1751,22 +1736,22 @@
         <v>2</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>24</v>
@@ -1774,11 +1759,12 @@
       <c r="K26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
@@ -1789,22 +1775,22 @@
         <v>2</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>24</v>
@@ -1812,11 +1798,12 @@
       <c r="K27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
@@ -1827,22 +1814,22 @@
         <v>2</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>24</v>
@@ -1850,11 +1837,12 @@
       <c r="K28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -1865,22 +1853,22 @@
         <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>24</v>
@@ -1888,11 +1876,12 @@
       <c r="K29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
@@ -1915,10 +1904,10 @@
         <v>21</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>24</v>
@@ -1926,11 +1915,12 @@
       <c r="K30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
@@ -1944,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>20</v>
@@ -1953,10 +1943,10 @@
         <v>21</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>24</v>
@@ -1964,11 +1954,12 @@
       <c r="K31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="4" t="s">
         <v>0</v>
       </c>
@@ -1982,31 +1973,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="K32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>0</v>
       </c>
@@ -2020,19 +2012,19 @@
         <v>3</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>24</v>
@@ -2040,11 +2032,12 @@
       <c r="K33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
@@ -2058,19 +2051,19 @@
         <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>24</v>
@@ -2078,11 +2071,12 @@
       <c r="K34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>0</v>
       </c>
@@ -2096,19 +2090,19 @@
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>24</v>
@@ -2116,11 +2110,12 @@
       <c r="K35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
@@ -2134,19 +2129,19 @@
         <v>3</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>24</v>
@@ -2154,11 +2149,12 @@
       <c r="K36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
@@ -2175,28 +2171,29 @@
         <v>19</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -2210,31 +2207,32 @@
         <v>5</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -2248,31 +2246,32 @@
         <v>5</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
@@ -2286,31 +2285,32 @@
         <v>5</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
@@ -2324,31 +2324,32 @@
         <v>5</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="4" t="s">
         <v>0</v>
       </c>
@@ -2362,31 +2363,32 @@
         <v>5</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>0</v>
       </c>
@@ -2400,31 +2402,32 @@
         <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="4" t="s">
         <v>0</v>
       </c>
@@ -2435,34 +2438,35 @@
         <v>4</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L44" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>0</v>
       </c>
@@ -2473,48 +2477,49 @@
         <v>4</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>20</v>
@@ -2529,16 +2534,17 @@
         <v>23</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L46" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>0</v>
       </c>
@@ -2549,10 +2555,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>20</v>
@@ -2567,16 +2573,17 @@
         <v>23</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L47" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="4" t="s">
         <v>0</v>
       </c>
@@ -2587,10 +2594,10 @@
         <v>4</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>20</v>
@@ -2605,16 +2612,17 @@
         <v>23</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L48" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>0</v>
       </c>
@@ -2625,34 +2633,35 @@
         <v>4</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="J49" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L49" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="4" t="s">
         <v>0</v>
       </c>
@@ -2663,34 +2672,35 @@
         <v>4</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H50" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L50" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q50" s="4"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>0</v>
       </c>
@@ -2701,92 +2711,94 @@
         <v>4</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="E52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L52" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>22</v>
@@ -2795,16 +2807,17 @@
         <v>23</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L53" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="4" t="s">
         <v>0</v>
       </c>
@@ -2815,16 +2828,16 @@
         <v>4</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>22</v>
@@ -2833,16 +2846,17 @@
         <v>23</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L54" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>0</v>
       </c>
@@ -2853,16 +2867,16 @@
         <v>4</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>22</v>
@@ -2871,16 +2885,17 @@
         <v>23</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L55" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="4" t="s">
         <v>0</v>
       </c>
@@ -2891,34 +2906,35 @@
         <v>4</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L56" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>0</v>
       </c>
@@ -2929,34 +2945,35 @@
         <v>4</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L57" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="4" t="s">
         <v>0</v>
       </c>
@@ -2967,34 +2984,35 @@
         <v>4</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L58" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L58" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q58" s="4"/>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="4" t="s">
         <v>0</v>
       </c>
@@ -3005,34 +3023,35 @@
         <v>4</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L59" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q59" s="4"/>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="4" t="s">
         <v>0</v>
       </c>
@@ -3043,16 +3062,16 @@
         <v>4</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>22</v>
@@ -3061,16 +3080,17 @@
         <v>23</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q60" s="4"/>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>0</v>
       </c>
@@ -3081,16 +3101,16 @@
         <v>4</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>22</v>
@@ -3099,16 +3119,17 @@
         <v>23</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L61" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q61" s="4"/>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="4" t="s">
         <v>0</v>
       </c>
@@ -3119,16 +3140,16 @@
         <v>4</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>22</v>
@@ -3137,16 +3158,17 @@
         <v>23</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q62" s="4"/>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>0</v>
       </c>
@@ -3157,34 +3179,35 @@
         <v>4</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="K63" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q63" s="4"/>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="4" t="s">
         <v>0</v>
       </c>
@@ -3195,34 +3218,35 @@
         <v>4</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L64" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q64" s="4"/>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="4" t="s">
         <v>0</v>
       </c>
@@ -3233,34 +3257,35 @@
         <v>4</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L65" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q65" s="4"/>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="4" t="s">
         <v>0</v>
       </c>
@@ -3271,34 +3296,35 @@
         <v>4</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L66" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q66" s="4"/>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="4" t="s">
         <v>0</v>
       </c>
@@ -3309,34 +3335,35 @@
         <v>4</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H67" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="K67" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q67" s="4"/>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="4" t="s">
         <v>0</v>
       </c>
@@ -3347,34 +3374,35 @@
         <v>4</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H68" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J68" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="K68" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L68" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q68" s="4"/>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="4" t="s">
         <v>0</v>
       </c>
@@ -3385,16 +3413,16 @@
         <v>4</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>22</v>
@@ -3403,16 +3431,17 @@
         <v>23</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L69" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q69" s="4"/>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="4" t="s">
         <v>0</v>
       </c>
@@ -3423,34 +3452,35 @@
         <v>4</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H70" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L70" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q70" s="4"/>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="4" t="s">
         <v>0</v>
       </c>
@@ -3461,34 +3491,35 @@
         <v>4</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="L71" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q71" s="4"/>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="4" t="s">
         <v>0</v>
       </c>
@@ -3499,186 +3530,191 @@
         <v>4</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="K72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L72" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q72" s="4"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L73" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q73" s="4"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L72" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K73" s="4" t="s">
+      <c r="G74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L74" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q74" s="4"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L73" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K74" s="4" t="s">
+      <c r="G75" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L75" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q75" s="4"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L74" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="G76" s="4" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L76" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q76" s="4"/>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="4" t="s">
         <v>0</v>
       </c>
@@ -3689,34 +3725,35 @@
         <v>4</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L77" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q77" s="4"/>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="4" t="s">
         <v>0</v>
       </c>
@@ -3727,34 +3764,35 @@
         <v>4</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L78" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q78" s="4"/>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="4" t="s">
         <v>0</v>
       </c>
@@ -3765,34 +3803,35 @@
         <v>4</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="H79" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J79" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="K79" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L79" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q79" s="4"/>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="4" t="s">
         <v>0</v>
       </c>
@@ -3803,48 +3842,49 @@
         <v>4</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E80" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q80" s="4"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>20</v>
@@ -3859,16 +3899,17 @@
         <v>23</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L81" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L81" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q81" s="4"/>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="4" t="s">
         <v>0</v>
       </c>
@@ -3879,10 +3920,10 @@
         <v>4</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>20</v>
@@ -3897,16 +3938,17 @@
         <v>23</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L82" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L82" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q82" s="4"/>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="4" t="s">
         <v>0</v>
       </c>
@@ -3917,10 +3959,10 @@
         <v>4</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>20</v>
@@ -3935,16 +3977,17 @@
         <v>23</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L83" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L83" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q83" s="4"/>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="4" t="s">
         <v>0</v>
       </c>
@@ -3955,34 +3998,35 @@
         <v>4</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L84" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L84" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q84" s="4"/>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="4" t="s">
         <v>0</v>
       </c>
@@ -3993,34 +4037,35 @@
         <v>4</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L85" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L85" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q85" s="4"/>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="4" t="s">
         <v>0</v>
       </c>
@@ -4031,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>19</v>
@@ -4049,16 +4094,17 @@
         <v>23</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="L86" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q86" s="4"/>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="4" t="s">
         <v>0</v>
       </c>
@@ -4069,10 +4115,10 @@
         <v>4</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>20</v>
@@ -4087,16 +4133,17 @@
         <v>23</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L87" s="4" t="s">
+      <c r="L87" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q87" s="4"/>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="4" t="s">
         <v>0</v>
       </c>
@@ -4107,148 +4154,152 @@
         <v>4</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L88" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q88" s="4"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L89" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q89" s="4"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L90" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q90" s="4"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="G91" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L91" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L91" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q91" s="4"/>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="4" t="s">
         <v>0</v>
       </c>
@@ -4259,34 +4310,35 @@
         <v>4</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L92" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L92" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q92" s="4"/>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="4" t="s">
         <v>0</v>
       </c>
@@ -4297,7 +4349,7 @@
         <v>4</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>19</v>
@@ -4315,16 +4367,17 @@
         <v>23</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L93" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L93" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q93" s="4"/>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="4" t="s">
         <v>0</v>
       </c>
@@ -4335,10 +4388,10 @@
         <v>4</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>20</v>
@@ -4353,16 +4406,17 @@
         <v>23</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L94" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L94" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q94" s="4"/>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="4" t="s">
         <v>0</v>
       </c>
@@ -4373,148 +4427,152 @@
         <v>4</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L95" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q95" s="4"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L96" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q96" s="4"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L97" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q97" s="4"/>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="G98" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L98" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L98" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q98" s="4"/>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="4" t="s">
         <v>0</v>
       </c>
@@ -4525,34 +4583,35 @@
         <v>4</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L99" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L99" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q99" s="4"/>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="4" t="s">
         <v>0</v>
       </c>
@@ -4563,34 +4622,35 @@
         <v>4</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="L100" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q100" s="4"/>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="4" t="s">
         <v>0</v>
       </c>
@@ -4601,34 +4661,35 @@
         <v>4</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L101" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="L101" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q101" s="4"/>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="4" t="s">
         <v>0</v>
       </c>
@@ -4639,34 +4700,35 @@
         <v>4</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="L102" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q102" s="4"/>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="4" t="s">
         <v>0</v>
       </c>
@@ -4677,34 +4739,35 @@
         <v>4</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="L103" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q103" s="4"/>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="4" t="s">
         <v>0</v>
       </c>
@@ -4715,34 +4778,35 @@
         <v>4</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L104" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="L104" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q104" s="4"/>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="4" t="s">
         <v>0</v>
       </c>
@@ -4753,32 +4817,242 @@
         <v>4</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="L105" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q105" s="4"/>
+    </row>
+    <row r="116" spans="3:14">
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="3:14">
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="3:14">
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="3:14">
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="3:14">
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="3:14">
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="3:14">
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="3:14">
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="3:14">
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="3:14">
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="3:14">
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="3:14">
+      <c r="F127" s="4"/>
+      <c r="N127" s="6"/>
+    </row>
+    <row r="128" spans="3:14">
+      <c r="F128" s="4"/>
+      <c r="N128" s="5"/>
+    </row>
+    <row r="129" spans="6:14">
+      <c r="F129" s="4"/>
+      <c r="N129" s="6"/>
+    </row>
+    <row r="130" spans="6:14">
+      <c r="F130" s="4"/>
+      <c r="N130" s="5"/>
+    </row>
+    <row r="131" spans="6:14">
+      <c r="F131" s="4"/>
+      <c r="N131" s="6"/>
+    </row>
+    <row r="132" spans="6:14">
+      <c r="F132" s="4"/>
+      <c r="N132" s="6"/>
+    </row>
+    <row r="133" spans="6:14">
+      <c r="F133" s="4"/>
+      <c r="N133" s="6"/>
+    </row>
+    <row r="134" spans="6:14">
+      <c r="F134" s="4"/>
+      <c r="N134" s="6"/>
+    </row>
+    <row r="135" spans="6:14">
+      <c r="F135" s="4"/>
+      <c r="N135" s="5"/>
+    </row>
+    <row r="136" spans="6:14">
+      <c r="F136" s="4"/>
+      <c r="N136" s="6"/>
+    </row>
+    <row r="137" spans="6:14">
+      <c r="F137" s="4"/>
+      <c r="N137" s="6"/>
+    </row>
+    <row r="138" spans="6:14">
+      <c r="F138" s="4"/>
+      <c r="N138" s="6"/>
+    </row>
+    <row r="139" spans="6:14">
+      <c r="F139" s="4"/>
+      <c r="N139" s="6"/>
+    </row>
+    <row r="140" spans="6:14">
+      <c r="F140" s="4"/>
+      <c r="N140" s="5"/>
+    </row>
+    <row r="141" spans="6:14">
+      <c r="F141" s="4"/>
+      <c r="N141" s="6"/>
+    </row>
+    <row r="154" spans="6:6">
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="6:6">
+      <c r="F155" s="4"/>
+    </row>
+    <row r="166" spans="6:6">
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" spans="6:6">
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168" spans="6:6">
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" spans="6:6">
+      <c r="F169" s="4"/>
+    </row>
+    <row r="178" spans="6:6">
+      <c r="F178" s="4"/>
+    </row>
+    <row r="179" spans="6:6">
+      <c r="F179" s="4"/>
+    </row>
+    <row r="180" spans="6:6">
+      <c r="F180" s="4"/>
+    </row>
+    <row r="181" spans="6:6">
+      <c r="F181" s="4"/>
+    </row>
+    <row r="182" spans="6:6">
+      <c r="F182" s="4"/>
+    </row>
+    <row r="183" spans="6:6">
+      <c r="F183" s="4"/>
+    </row>
+    <row r="190" spans="6:6">
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="6:6">
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" spans="6:6">
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" spans="6:6">
+      <c r="F193" s="4"/>
+    </row>
+    <row r="194" spans="6:6">
+      <c r="F194" s="4"/>
+    </row>
+    <row r="195" spans="6:6">
+      <c r="F195" s="4"/>
+    </row>
+    <row r="196" spans="6:6">
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" spans="6:6">
+      <c r="F197" s="4"/>
+    </row>
+    <row r="202" spans="6:6">
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" spans="6:6">
+      <c r="F203" s="4"/>
+    </row>
+    <row r="204" spans="6:6">
+      <c r="F204" s="4"/>
+    </row>
+    <row r="205" spans="6:6">
+      <c r="F205" s="4"/>
+    </row>
+    <row r="206" spans="6:6">
+      <c r="F206" s="4"/>
+    </row>
+    <row r="207" spans="6:6">
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208" spans="6:6">
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" spans="6:6">
+      <c r="F209" s="4"/>
+    </row>
+    <row r="211" spans="6:6">
+      <c r="F211" s="4"/>
+    </row>
+    <row r="212" spans="6:6">
+      <c r="F212" s="4"/>
+    </row>
+    <row r="213" spans="6:6">
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="6:6">
+      <c r="F214" s="4"/>
+    </row>
+    <row r="215" spans="6:6">
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" spans="6:6">
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" spans="6:6">
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="6:6">
+      <c r="F218" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
